--- a/nop-record/src/test/resources/_vfs/nop/record/mapping/test/demo.record-mappings.xlsx
+++ b/nop-record/src/test/resources/_vfs/nop/record/mapping/test/demo.record-mappings.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-record\src\test\resources\_vfs\nop\record\mapping\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401F4485-5334-49C5-BDDF-78279D78D457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2D1481-CE4F-4325-97E2-609E537ED2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="30720" windowHeight="13500" activeTab="2" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="30720" windowHeight="13500" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
     <sheet name="配置" sheetId="3" r:id="rId2"/>
-    <sheet name="RecordMapping" sheetId="21" r:id="rId3"/>
+    <sheet name="Type1ToType2" sheetId="21" r:id="rId3"/>
+    <sheet name="ItemTest" sheetId="22" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
     <t>英文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +211,46 @@
   </si>
   <si>
     <t>sub.field3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子项目映射规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -897,25 +938,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="4.77734375" customWidth="1"/>
-    <col min="9" max="9" width="6.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="12" width="11.109375" customWidth="1"/>
+    <col min="3" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="4.77734375" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="13" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
@@ -927,14 +968,15 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="8"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="8"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -944,16 +986,17 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="8"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M2" s="8"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
@@ -963,14 +1006,15 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="8"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
       <c r="L3" s="8"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="8"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>29</v>
       </c>
@@ -982,12 +1026,13 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="8"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="8"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>30</v>
       </c>
@@ -999,12 +1044,13 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="8"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="8"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>28</v>
       </c>
@@ -1016,12 +1062,13 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="7"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M6" s="7"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -1034,9 +1081,10 @@
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
-      <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M7" s="17"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>44</v>
       </c>
@@ -1052,8 +1100,9 @@
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1070,31 +1119,34 @@
         <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -1106,18 +1158,19 @@
         <v>35</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="6"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -1129,18 +1182,19 @@
         <v>37</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M11" s="6"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>3</v>
       </c>
@@ -1152,22 +1206,23 @@
         <v>45</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="6">
+      <c r="K12" s="6"/>
+      <c r="L12" s="6">
         <v>123</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="6"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>4</v>
       </c>
@@ -1179,65 +1234,400 @@
         <v>42</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>5</v>
+      </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="16"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="A16:N16"/>
+    <mergeCell ref="C4:K4"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C5:K5"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3923DBD8-3F1C-4097-B9E5-8243D30C5D1D}">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="4.77734375" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="13" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="A12:N12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
